--- a/physiognomy-pt-dataset.xlsx
+++ b/physiognomy-pt-dataset.xlsx
@@ -1,164 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Personality-Test-Streamlit\dataset\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D2B63E-88AB-43FA-B443-807121A082E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2208" windowWidth="16596" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1416" yWindow="780" windowWidth="16596" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>Would you like to proceed?</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Honesty-Humility</t>
-  </si>
-  <si>
-    <t>Emotionality</t>
-  </si>
-  <si>
-    <t>Extraversion</t>
-  </si>
-  <si>
-    <t>Agreeableness</t>
-  </si>
-  <si>
-    <t>Conscientiousness</t>
-  </si>
-  <si>
-    <t>Openness to Experience</t>
-  </si>
-  <si>
-    <t>Altruism</t>
-  </si>
-  <si>
-    <t>Sincerity</t>
-  </si>
-  <si>
-    <t>Fairness</t>
-  </si>
-  <si>
-    <t>Greed-Avoidance</t>
-  </si>
-  <si>
-    <t>Modesty</t>
-  </si>
-  <si>
-    <t>Fearfulness</t>
-  </si>
-  <si>
-    <t>Anxiety</t>
-  </si>
-  <si>
-    <t>Dependence</t>
-  </si>
-  <si>
-    <t>Sentimentality</t>
-  </si>
-  <si>
-    <t>Social Self-Esteem</t>
-  </si>
-  <si>
-    <t>Social Boldness</t>
-  </si>
-  <si>
-    <t>Sociability</t>
-  </si>
-  <si>
-    <t>Liveliness</t>
-  </si>
-  <si>
-    <t>Forgiveness</t>
-  </si>
-  <si>
-    <t>Gentleness</t>
-  </si>
-  <si>
-    <t>Flexibility</t>
-  </si>
-  <si>
-    <t>Patience</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Diligence</t>
-  </si>
-  <si>
-    <t>Perfectionism</t>
-  </si>
-  <si>
-    <t>Prudence</t>
-  </si>
-  <si>
-    <t>Aesthetic Appreciation</t>
-  </si>
-  <si>
-    <t>Inquisitiveness</t>
-  </si>
-  <si>
-    <t>Creativity</t>
-  </si>
-  <si>
-    <t>Unconventionality</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -191,28 +68,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -478,129 +419,819 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AN4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>12</v>
+    <row r="1" ht="57.6" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Would you like to proceed?</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Birth Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Email Address</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Image Name</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Honesty-Humility</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Emotionality</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Extraversion</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Agreeableness</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Conscientiousness</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Openness to Experience</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Altruism</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>Sincerity</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Fairness</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Greed-Avoidance</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Modesty</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Fearfulness</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Anxiety</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Dependence</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>Sentimentality</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Social Self-Esteem</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Social Boldness</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>Sociability</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Liveliness</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Forgiveness</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Gentleness</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Flexibility</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Patience</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Organization</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Diligence</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Perfectionism</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>Prudence</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Aesthetic Appreciation</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Inquisitiveness</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Creativity</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Unconventionality</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>(Interstitial facet scale) Altruism</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>HEXACO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Yes, I hereby allow/authorize to use, collect, and process the information for legitimate purposes specifically for the academic study and allow authorized personnel to process the information.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vaughn</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chua</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>45152</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> chua@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>VaughnChua20230811_094128.jpg</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MID - 38</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MID - 52</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MID - 44</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MID - 43</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>MID - 51</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MID - 42</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>MID - 9</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MID - 9</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>MID - 12</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>MID - 13</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>MID - 11</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>HIGH- 16</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>MID - 13</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>MID - 11</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>MID - 11</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>MID - 9</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>MID - 11</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>MID - 12</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>MID - 11</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>MID - 11</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>HIGH- 16</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>MID - 13</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>MID - 12</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>MID - 295</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Yes, I hereby allow/authorize to use, collect, and process the information for legitimate purposes specifically for the academic study and allow authorized personnel to process the information.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kenneth</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Golosinda</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>36754</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> test@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>KennethGolosinda20230811_095651.jpg</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>MID - 51</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>MID - 48</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>MID - 42</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>MID - 52</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>MID - 55</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MID - 45</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>LOW - 8</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>MID - 12</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>HIGH- 17</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>MID - 12</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>MID - 11</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>MID - 12</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>MID - 14</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>MID - 11</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>MID - 13</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>LOW - 8</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>LOW - 8</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>MID - 13</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>MID - 12</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>MID - 12</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>MID - 12</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>HIGH- 16</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>HIGH- 16</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>HIGH- 16</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>MID - 14</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>MID - 9</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>MID - 10</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>MID - 9</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>MID - 13</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>MID - 13</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>LOW - 8</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>MID - 301</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yes, I hereby allow/authorize to use, collect, and process the information for legitimate purposes specifically for the academic study and allow authorized personnel to process the information.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Testdata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Testdata</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>36747</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Testdata@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>TestdataTestdata20230811_100601.jpg</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>LOW - 3</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>LOW - 3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>LOW - 4</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>LOW - 8</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>LOW - 5</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>LOW - 8</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>LOW - 3</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>LOW - 3</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>LOW - 2</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>LOW - 2</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>LOW - 5</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>LOW - 3</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>LOW - 3</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>LOW - 2</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>LOW - 4</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>LOW - 4</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>LOW - 0</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>LOW - 31</t>
+        </is>
       </c>
     </row>
   </sheetData>
